--- a/system/src/main/resources/template/excel/excelExportTemplate.xlsx
+++ b/system/src/main/resources/template/excel/excelExportTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>一级map取值</t>
   </si>
@@ -31,6 +31,9 @@
     <t>纵向遍历</t>
   </si>
   <si>
+    <t>横向遍历</t>
+  </si>
+  <si>
     <t>{{numType}}</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>性别</t>
   </si>
   <si>
+    <t>{{#fe: userList t.id}}</t>
+  </si>
+  <si>
     <t>{{$fe: userList t.id</t>
   </si>
   <si>
@@ -59,6 +65,12 @@
   </si>
   <si>
     <t>t.sex == manmark ? 男 : 女}}</t>
+  </si>
+  <si>
+    <t>{{#fe: userList t.name}}</t>
+  </si>
+  <si>
+    <t>{{#fe: userList t.sex == manmark ? 男 : 女}}</t>
   </si>
 </sst>
 </file>
@@ -710,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -724,6 +736,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1050,13 +1065,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="27.8888888888889" customWidth="1"/>
@@ -1065,9 +1080,10 @@
     <col min="5" max="5" width="24.3333333333333" customWidth="1"/>
     <col min="6" max="6" width="27.7777777777778" customWidth="1"/>
     <col min="7" max="7" width="30.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="50.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,39 +1101,53 @@
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="5:7">
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="7" t="s">
+    <row r="3" spans="5:8">
+      <c r="E3" s="6" t="s">
         <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="28.8" spans="8:8">
+      <c r="H4" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
